--- a/Docs/System Call Functions.xlsx
+++ b/Docs/System Call Functions.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\C++\Typhoon\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\C#\Typhoon\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3AA92E-B656-4429-B711-D536BE0B6716}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FCE4D9-D63D-4564-B5DB-4044AD1688A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Symbol</t>
   </si>
@@ -42,104 +48,71 @@
     <t>nop</t>
   </si>
   <si>
-    <t>0x0000</t>
-  </si>
-  <si>
     <t>exit</t>
   </si>
   <si>
-    <t>0x0001</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>0x0002</t>
-  </si>
-  <si>
     <t>break</t>
   </si>
   <si>
-    <t>0x0003</t>
-  </si>
-  <si>
     <t>file.read</t>
   </si>
   <si>
-    <t>0x0004</t>
-  </si>
-  <si>
     <t>file.write</t>
   </si>
   <si>
-    <t>0x0005</t>
-  </si>
-  <si>
     <t>file.delete</t>
   </si>
   <si>
-    <t>0x0006</t>
-  </si>
-  <si>
     <t>directory.make</t>
   </si>
   <si>
-    <t>0x0007</t>
-  </si>
-  <si>
     <t>directory.delete</t>
   </si>
   <si>
-    <t>0x0008</t>
-  </si>
-  <si>
     <t>clock.getTime</t>
   </si>
   <si>
-    <t>0x0009</t>
-  </si>
-  <si>
     <t>thread.sleep</t>
   </si>
   <si>
-    <t>0x000A</t>
-  </si>
-  <si>
     <t>thread.sleepMicro</t>
   </si>
   <si>
-    <t>0x000B</t>
-  </si>
-  <si>
     <t>thread.sleepNano</t>
   </si>
   <si>
-    <t>0x000C</t>
-  </si>
-  <si>
     <t>console.read</t>
   </si>
   <si>
-    <t>0x000D</t>
-  </si>
-  <si>
     <t>console.readLine</t>
   </si>
   <si>
-    <t>0x000E</t>
-  </si>
-  <si>
     <t>console.write</t>
   </si>
   <si>
-    <t>0x000F</t>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Supports</t>
+  </si>
+  <si>
+    <t>In development</t>
+  </si>
+  <si>
+    <t>Does not support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +120,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +140,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,13 +167,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,257 +478,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="5" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="13" style="3" customWidth="1"/>
+    <col min="2" max="5" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="str">
+        <f>DEC2HEX(ROW(A2) - 2,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="str">
+        <f t="shared" ref="A3:A17" si="0">DEC2HEX(ROW(A3) - 2,4)</f>
+        <v>0001</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0006</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0007</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0008</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0009</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>000A</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>000B</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>000C</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>000D</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>000E</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>000F</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>